--- a/LapshaApp TechDoc/расчет долей.xlsx
+++ b/LapshaApp TechDoc/расчет долей.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valer\Desktop\Progr\Lapsha\LapshaApp TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D6A83-0DC2-405A-AE4A-932A46BB4B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE344A41-7B8D-4DCC-88A3-08512454A6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-468" yWindow="516" windowWidth="10176" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,6 +541,30 @@
         <v>8.6</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>1.7*8.6</f>
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>3.6*8.6</f>
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>9.8*8.6</f>
+        <v>84.28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f>77.2*8.6</f>
+        <v>663.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
